--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,138 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentaro/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E9AC0-E3DA-B940-95DD-2E6F4A613475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>内膜組織診の結果、体部類内膜癌、Stage IAと診断。 糖尿病（HbA1c 8.8%）あり</t>
-  </si>
-  <si>
-    <t>2023-01-12</t>
-  </si>
-  <si>
-    <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
-  </si>
-  <si>
-    <t>2023-01-29</t>
-  </si>
-  <si>
-    <t>手術記録：腹腔鏡下子宮全摘施行。手術時間325分、出血量514ml。</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>術後化学療法としてDCを開始。</t>
-  </si>
-  <si>
-    <t>2023-02-25</t>
-  </si>
-  <si>
-    <t>術後化学療法としてPTX+CBDCAを開始。</t>
-  </si>
-  <si>
-    <t>2023-03-10</t>
-  </si>
-  <si>
-    <t>術後化学療法としてDC療法を開始。</t>
-  </si>
-  <si>
-    <t>内膜組織診の結果、子宮体部癌、Stage ICと診断。</t>
-  </si>
-  <si>
-    <t>2023-01-23</t>
-  </si>
-  <si>
-    <t>治療方針：開腹子宮摘出術の方針。</t>
-  </si>
-  <si>
-    <t>2023-01-30</t>
-  </si>
-  <si>
-    <t>手術記録：開腹子宮全摘施行。手術時間217分、出血量143ml。</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>術後化学療法としてDTX+CBDCAを開始。</t>
-  </si>
-  <si>
-    <t>2023-03-03</t>
-  </si>
-  <si>
-    <t>術後化学療法として毎週パクリタキセルを開始。</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>術後化学療法としてweekly PTXを開始。</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,171 +420,712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>組織診の結果、高異型度漿液性癌、Stage IICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 2.5 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間302分、出血量570ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。 腎機能低下（Cr 1.8 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮体部類内膜癌、Stage IIAと診断。 腎機能低下（Cr 2.0 mg/dl）</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間343分、出血量863ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 54%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-03-20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮頚癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間287分、出血量456ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-03-16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>組織診断の結果、明細胞癌、Stage IIICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間270分、出血量527ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸癌、Stage IVCと診断。 高度肥満（BMI 35.7）</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-01-08</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間254分、出血量83ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。 心機能低下（EF 54%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 糖尿病（HbA1c 7.9%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮体癌、Stage IIIAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。 心機能低下（EF 33%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間150分、出血量435ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、頚部腺癌、Stage IVBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間270分、出血量132ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 糖尿病（HbA1c 7.9%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 54%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮内膜癌、Stage IICと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間171分、出血量993ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>組織診の結果、体部類内膜癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。 糖尿病（HbA1c 9.8%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間234分、出血量290ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、頚部腺癌、Stage IBと診断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。 心機能低下（EF 51%）あり</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間319分、出血量224ml。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>